--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/67/word_level_predictions_67.xlsx
@@ -1773,549 +1773,549 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>18</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>motor</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>19</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>21</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>exist</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>22</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>23</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>motor</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>24</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>25</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>26</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>exist</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>assistance</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>27</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>assistance</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2374,106 +2374,106 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Capture</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="D39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G40" s="2" t="b">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Missed_B-Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -2686,156 +2686,156 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>2</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>6</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>shoot</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
         <v>2</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>shoot</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>panorama</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>8</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/67/word_level_predictions_67.xlsx
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1797,525 +1797,525 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>motor</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>exist</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2374,106 +2374,106 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>2</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Capture</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>2</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G40" s="2" t="b">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Missed_B-Event</t>
         </is>
       </c>
     </row>
@@ -2686,156 +2686,156 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>shoot</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>panorama</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
